--- a/Testsamples/1Flu_Intensity(BCC P0 and P1)/Comparison.xlsx
+++ b/Testsamples/1Flu_Intensity(BCC P0 and P1)/Comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\0WORKcoding\ImageProcess\Testsamples\1Flu_Intensity(BCC P0 and P1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7F4388-4B91-4AEF-B723-53CFE84631F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7E048C-396B-4542-9612-C46B47CBE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25693" yWindow="-53" windowWidth="25786" windowHeight="13866" xr2:uid="{B4EB2522-5A52-4141-AC40-63836831D592}"/>
   </bookViews>
@@ -447,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B51F0AD-6412-46E4-B47F-AB3A2D847613}">
-  <dimension ref="A4:L27"/>
+  <dimension ref="A4:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -972,6 +972,40 @@
       <c r="L27">
         <f>AVERAGE(L6:L23)</f>
         <v>380.32342277208426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <f>B27/$B$27</f>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <f>C27/$B$27</f>
+        <v>0.19975577346122725</v>
+      </c>
+      <c r="E28">
+        <f>E27/$E$27</f>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f>F27/$E$27</f>
+        <v>8.7678357233803332</v>
+      </c>
+      <c r="H28">
+        <f>H27/$H$27</f>
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <f>I27/$H$27</f>
+        <v>0.20284741422200481</v>
+      </c>
+      <c r="K28">
+        <f>K27/$K$27</f>
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <f>L27/$K$27</f>
+        <v>9.0110015542892548</v>
       </c>
     </row>
   </sheetData>
